--- a/src/main/webapp/template/excel/saleOperator.xlsx
+++ b/src/main/webapp/template/excel/saleOperator.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\yihg-erp-web\src\main\webapp\template\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -11,6 +16,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -85,8 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +109,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -109,10 +126,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -136,26 +153,125 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -168,14 +284,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -210,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,9 +358,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,6 +393,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,23 +569,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
     <col min="4" max="4" width="24.25" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
-    <col min="8" max="8" width="23.5" customWidth="1"/>
-    <col min="9" max="9" width="29.375" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="11.25" customWidth="1"/>
     <col min="11" max="11" width="17.375" customWidth="1"/>
     <col min="12" max="12" width="20.625" customWidth="1"/>
@@ -477,28 +594,28 @@
     <col min="17" max="17" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -517,11 +634,11 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
@@ -559,12 +676,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -572,12 +689,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
